--- a/config/category_colours.xlsx
+++ b/config/category_colours.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierredane/Development/vitalwaveinc/PACE-HRH-UI/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EED18DD-1ADE-DC43-8A2A-D763951B9BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F960DC-6BDC-6D43-B454-5F7CAB19708A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="2720" windowWidth="27640" windowHeight="15300" xr2:uid="{5F97ECFB-0FF4-9A43-9046-FEE58654BBCA}"/>
+    <workbookView xWindow="8200" yWindow="1260" windowWidth="27640" windowHeight="15300" activeTab="2" xr2:uid="{5F97ECFB-0FF4-9A43-9046-FEE58654BBCA}"/>
   </bookViews>
   <sheets>
-    <sheet name="service_categories" sheetId="1" r:id="rId1"/>
-    <sheet name="clinical_categories" sheetId="2" r:id="rId2"/>
+    <sheet name="old_service_categories" sheetId="1" r:id="rId1"/>
+    <sheet name="old_clinical_categories" sheetId="2" r:id="rId2"/>
+    <sheet name="service_categories" sheetId="3" r:id="rId3"/>
+    <sheet name="clinical_categories" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="79">
   <si>
     <t>Pregnancy</t>
   </si>
@@ -178,13 +180,109 @@
   </si>
   <si>
     <t>#9edae5</t>
+  </si>
+  <si>
+    <t>First aid</t>
+  </si>
+  <si>
+    <t>Child Health</t>
+  </si>
+  <si>
+    <t>EPI</t>
+  </si>
+  <si>
+    <t>TB &amp; leprosy</t>
+  </si>
+  <si>
+    <t>Major NCDs</t>
+  </si>
+  <si>
+    <t>NTD</t>
+  </si>
+  <si>
+    <t>HIV/AIDS &amp; STI</t>
+  </si>
+  <si>
+    <t>Old Category Name</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>MNH</t>
+  </si>
+  <si>
+    <t>FPAYH</t>
+  </si>
+  <si>
+    <t>Child health</t>
+  </si>
+  <si>
+    <t>Possibly remove color, as Family planning and adolescent and youth health already has a color</t>
+  </si>
+  <si>
+    <t>This is included in case anyone ever had it listed as FP - it won't return an error. Shouldn't happen if the model input sheet all uses the dropdowns correctly, but you never know :)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Not included - switching color to new category</t>
+  </si>
+  <si>
+    <t>Other outpatient services</t>
+  </si>
+  <si>
+    <t>#a64d79</t>
+  </si>
+  <si>
+    <t>Healthy housing</t>
+  </si>
+  <si>
+    <t>New category, need color - if there is an existing palette that will autogenerate new colors, let's use that - if not, can try these</t>
+  </si>
+  <si>
+    <t>#ffd966</t>
+  </si>
+  <si>
+    <t>Personal hygiene</t>
+  </si>
+  <si>
+    <t>New category, need color</t>
+  </si>
+  <si>
+    <t>#85200c</t>
+  </si>
+  <si>
+    <t>Waste management</t>
+  </si>
+  <si>
+    <t>#45818e</t>
+  </si>
+  <si>
+    <t>Institutional hygiene</t>
+  </si>
+  <si>
+    <t>Health Education</t>
+  </si>
+  <si>
+    <t>#c6b0d6</t>
+  </si>
+  <si>
+    <t>HPC</t>
+  </si>
+  <si>
+    <t>#ea9999</t>
+  </si>
+  <si>
+    <t>NCD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,8 +297,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +452,120 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF98DF8A"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F77B4"/>
+        <bgColor rgb="FF1F77B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB7F0F"/>
+        <bgColor rgb="FFFB7F0F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2CA02B"/>
+        <bgColor rgb="FF2CA02B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9466BD"/>
+        <bgColor rgb="FF9466BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8C564B"/>
+        <bgColor rgb="FF8C564B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE477C2"/>
+        <bgColor rgb="FFE477C2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor rgb="FF7F7F7F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDBD22"/>
+        <bgColor rgb="FFBDBD22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2DBECF"/>
+        <bgColor rgb="FF2DBECF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEC7E9"/>
+        <bgColor rgb="FFAEC7E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98DF8A"/>
+        <bgColor rgb="FF98DF8A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB9897"/>
+        <bgColor rgb="FFFB9897"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9EDAE5"/>
+        <bgColor rgb="FF9EDAE5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA64D79"/>
+        <bgColor rgb="FFA64D79"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFD966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF85200C"/>
+        <bgColor rgb="FF85200C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF45818E"/>
+        <bgColor rgb="FF45818E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6B0D6"/>
+        <bgColor rgb="FFC6B0D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor rgb="FFEA9999"/>
       </patternFill>
     </fill>
   </fills>
@@ -310,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -328,6 +599,45 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EA4BB7-CEF2-2249-9C1B-0D984FF027C4}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,7 +1031,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -729,15 +1039,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
@@ -745,97 +1055,149 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>24</v>
+      <c r="A13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>27</v>
+        <v>51</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>45</v>
+        <v>11</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B26" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -849,7 +1211,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -964,4 +1326,466 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C020334-9F04-1543-9B6A-53ADF3325E4A}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6483365-F32A-1A4B-AA41-4E7D880C9D15}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>